--- a/var_info/indv_panel_var_info/MIDJA_VariableInfo.xlsx
+++ b/var_info/indv_panel_var_info/MIDJA_VariableInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/CDS-Data/08_Projects/TSRP/var_info/indv_panel_var_info/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/CDS-Data/08_Projects/temprisk/var_info/indv_panel_var_info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA5792F-E1A8-4F4A-B173-7EC592994177}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C34BEA-E7AD-A74B-A6E1-00F3F913AEFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="20660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20460" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Measures" sheetId="1" r:id="rId1"/>
@@ -21,14 +21,14 @@
     <sheet name="PanelInfo" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Measures!$A$1:$O$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Measures!$A$1:$P$40</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="67">
   <si>
     <t>ord</t>
   </si>
@@ -226,6 +226,9 @@
   </si>
   <si>
     <t>alc</t>
+  </si>
+  <si>
+    <t>item_num</t>
   </si>
 </sst>
 </file>
@@ -1090,11 +1093,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O59"/>
+  <dimension ref="A1:P59"/>
   <sheetViews>
     <sheetView zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
+      <selection pane="bottomLeft" activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1104,7 +1107,7 @@
     <col min="5" max="5" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1148,10 +1151,13 @@
         <v>20</v>
       </c>
       <c r="O1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -1182,8 +1188,11 @@
       <c r="J2">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="O2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1214,8 +1223,11 @@
       <c r="J3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="O3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -1246,8 +1258,11 @@
       <c r="K4">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="O4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -1278,8 +1293,11 @@
       <c r="K5">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="O5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -1310,8 +1328,11 @@
       <c r="K6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="O6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -1342,8 +1363,11 @@
       <c r="K7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="O7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -1377,8 +1401,11 @@
       <c r="K8">
         <v>365</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="O8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -1412,8 +1439,11 @@
       <c r="K9">
         <v>365</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="O9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -1447,8 +1477,11 @@
       <c r="K10">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="O10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -1482,8 +1515,11 @@
       <c r="K11">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="O11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -1517,8 +1553,11 @@
       <c r="K12">
         <v>365</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="O12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -1552,8 +1591,11 @@
       <c r="K13">
         <v>365</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="O13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -1561,7 +1603,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:16">
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -1569,7 +1611,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:16">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1859,10 +1901,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O136"/>
+  <dimension ref="A1:P136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1871,7 +1913,7 @@
     <col min="5" max="5" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1915,10 +1957,13 @@
         <v>20</v>
       </c>
       <c r="O1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -1934,11 +1979,11 @@
       <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1954,44 +1999,44 @@
       <c r="E3" t="s">
         <v>6</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16">
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:16">
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:16">
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:16">
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:16">
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:16">
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:16">
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:16">
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:16">
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:16">
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:16">
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="4:4">
@@ -2199,10 +2244,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2210,7 +2255,7 @@
     <col min="3" max="3" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -2254,10 +2299,13 @@
         <v>20</v>
       </c>
       <c r="O1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -2273,11 +2321,11 @@
       <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -2293,11 +2341,11 @@
       <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -2313,11 +2361,11 @@
       <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="17">
+    <row r="5" spans="1:16" ht="17">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -2333,7 +2381,7 @@
       <c r="E5" t="s">
         <v>8</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2344,10 +2392,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2356,7 +2404,7 @@
     <col min="5" max="5" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -2400,6 +2448,9 @@
         <v>20</v>
       </c>
       <c r="O1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2413,15 +2464,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -2465,6 +2516,9 @@
         <v>20</v>
       </c>
       <c r="O1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P1" t="s">
         <v>23</v>
       </c>
     </row>
